--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernal\Desktop\science fair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Avalanche\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,26 +922,6 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Avalanche\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\temp\Avalanche\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>BOM ID</t>
   </si>
@@ -35,15 +35,6 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>wheels</t>
-  </si>
-  <si>
-    <t>motors</t>
-  </si>
-  <si>
-    <t>hex shaft</t>
-  </si>
-  <si>
     <t>M5-45</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>shock absorbers</t>
   </si>
   <si>
-    <t>tubing thing</t>
-  </si>
-  <si>
     <t>styrofoam bits</t>
   </si>
   <si>
@@ -98,18 +86,12 @@
     <t>zip ties</t>
   </si>
   <si>
-    <t>laptop</t>
-  </si>
-  <si>
     <t>camera</t>
   </si>
   <si>
     <t>arduino mega</t>
   </si>
   <si>
-    <t>motor controller shield</t>
-  </si>
-  <si>
     <t>cables</t>
   </si>
   <si>
@@ -125,20 +107,91 @@
     <t>PLA fillament</t>
   </si>
   <si>
-    <t>Components</t>
+    <t>cable sleaves</t>
+  </si>
+  <si>
+    <t>1.5 meters</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>2xDagu Wild Thumper Wheel 120x60mm Pair</t>
+  </si>
+  <si>
+    <t>50:1 Metal Gearmotor 37Dx70L mm with 64 CPR Encoder</t>
+  </si>
+  <si>
+    <t>12mm Hex Wheel Adapter for 6mm Shaft</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1555</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2824</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2686</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B00PD92EJ8/ref=oh_aui_detailpage_o04_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>laptop --&gt; Dell Latitude E5410 14" Core i5-520M 2.40GHz 4GB DDR3 250GB HDD WIN7COA No OS  + charger ---&gt; AC Power Adapter Battery Charger For Dell Latitude E5410 E5510 E5520 E6420 E6520</t>
+  </si>
+  <si>
+    <t>motor controller shield -----&gt; For Arduino VNH2SP30 Stepper Motor Driver Module 30A Moto Shield Replace L298N</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/For-Arduino-VNH2SP30-Stepper-Motor-Driver-Module-30A-Moto-Shield-Replace-L298N/221994167638?hash=item33afe22d56:g:nMcAAOSw23lZuKDz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,10 +235,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,11 +248,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,421 +582,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" customWidth="1"/>
+    <col min="2" max="2" width="38.26171875" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" customWidth="1"/>
+    <col min="4" max="4" width="49.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6">
+        <f>14.95*C2/2</f>
+        <v>44.849999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6">
+        <f>24.95*C3</f>
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6">
+        <f>3.95 *C4</f>
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6">
+        <f>9.29+64.99</f>
+        <v>74.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E24" s="6">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="62.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="3">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="6">
         <v>18.25</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8">
+        <f>SUM(E2:E30)</f>
+        <v>370.99</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A7FA415E-6244-4378-B575-30E02D28A76B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B7BED6E0-A7AC-4A3F-B210-32CDB8EB09BD}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{58DAE4C5-89EF-46B5-BAAD-3485EA7DD4BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>